--- a/jpcore-r4/feature/swg2-ImageStudyRadiologyExample/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-ImageStudyRadiologyExample/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T02:24:08+00:00</t>
+    <t>2022-08-05T02:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-ImageStudyRadiologyExample/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-ImageStudyRadiologyExample/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T02:50:05+00:00</t>
+    <t>2022-08-05T03:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-ImageStudyRadiologyExample/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-ImageStudyRadiologyExample/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T03:21:04+00:00</t>
+    <t>2022-08-05T10:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
